--- a/Valuation Template_Fair Value.xlsx
+++ b/Valuation Template_Fair Value.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="60" windowWidth="5970" windowHeight="6765"/>
+    <workbookView xWindow="-108" yWindow="60" windowWidth="5976" windowHeight="6768"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="Validanswers">'Dropdown lists'!$A$2:$A$3</definedName>
     <definedName name="Valuationbasis">'Dropdown lists'!$A$18:$A$20</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -578,7 +578,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
   <si>
     <t>UPRN:</t>
   </si>
@@ -845,6 +845,9 @@
   </si>
   <si>
     <t>Deed Packet Number:</t>
+  </si>
+  <si>
+    <t>?????????????????</t>
   </si>
 </sst>
 </file>
@@ -1552,21 +1555,21 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
         <v>16</v>
       </c>
@@ -1576,19 +1579,21 @@
       <c r="E1" s="69"/>
       <c r="F1" s="70"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="18"/>
-      <c r="D3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -1600,7 +1605,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>88</v>
       </c>
@@ -1612,7 +1617,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>1</v>
       </c>
@@ -1624,7 +1629,7 @@
       <c r="G6" s="28"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
@@ -1636,7 +1641,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>3</v>
       </c>
@@ -1648,7 +1653,7 @@
       <c r="E8" s="23"/>
       <c r="F8" s="24"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
@@ -1658,7 +1663,7 @@
       <c r="E9" s="11"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>78</v>
       </c>
@@ -1668,7 +1673,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>14</v>
       </c>
@@ -1678,7 +1683,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
@@ -1688,7 +1693,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
@@ -1698,7 +1703,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>4</v>
       </c>
@@ -1708,7 +1713,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>11</v>
       </c>
@@ -1718,7 +1723,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="66" t="s">
         <v>15</v>
       </c>
@@ -1728,7 +1733,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>8</v>
       </c>
@@ -1738,7 +1743,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>9</v>
       </c>
@@ -1750,7 +1755,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>12</v>
       </c>
@@ -1760,7 +1765,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>71</v>
       </c>
@@ -1770,7 +1775,7 @@
       <c r="E20" s="10"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>72</v>
       </c>
@@ -1780,7 +1785,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>70</v>
       </c>
@@ -1790,7 +1795,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>17</v>
       </c>
@@ -1802,7 +1807,7 @@
       <c r="E23" s="72"/>
       <c r="F23" s="73"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="11"/>
       <c r="C24" s="74"/>
@@ -1810,7 +1815,7 @@
       <c r="E24" s="75"/>
       <c r="F24" s="76"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="11"/>
       <c r="C25" s="74"/>
@@ -1818,7 +1823,7 @@
       <c r="E25" s="75"/>
       <c r="F25" s="76"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="11"/>
       <c r="C26" s="74"/>
@@ -1826,7 +1831,7 @@
       <c r="E26" s="75"/>
       <c r="F26" s="76"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="11"/>
       <c r="C27" s="74"/>
@@ -1834,7 +1839,7 @@
       <c r="E27" s="75"/>
       <c r="F27" s="76"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="11"/>
       <c r="C28" s="74"/>
@@ -1842,7 +1847,7 @@
       <c r="E28" s="75"/>
       <c r="F28" s="76"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="11"/>
       <c r="C29" s="74"/>
@@ -1850,7 +1855,7 @@
       <c r="E29" s="75"/>
       <c r="F29" s="76"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="29"/>
       <c r="C30" s="77"/>
@@ -1858,15 +1863,15 @@
       <c r="E30" s="78"/>
       <c r="F30" s="79"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>57</v>
       </c>
@@ -1876,7 +1881,7 @@
       <c r="E34" s="10"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1884,7 +1889,7 @@
       <c r="E35" s="11"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>18</v>
       </c>
@@ -1894,7 +1899,7 @@
       <c r="E36" s="11"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>20</v>
       </c>
@@ -1906,7 +1911,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>19</v>
       </c>
@@ -1919,7 +1924,7 @@
       </c>
       <c r="F38" s="39"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -1930,7 +1935,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="40" t="s">
         <v>22</v>
       </c>
@@ -1943,7 +1948,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
@@ -1956,7 +1961,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>36</v>
       </c>
@@ -1966,7 +1971,7 @@
       <c r="E43" s="10"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="34"/>
       <c r="B44" s="55" t="s">
         <v>37</v>
@@ -1981,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>32</v>
       </c>
@@ -1991,7 +1996,7 @@
       <c r="E46" s="10"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="31"/>
       <c r="C47" s="11"/>
@@ -1999,7 +2004,7 @@
       <c r="E47" s="11"/>
       <c r="F47" s="39"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="46" t="s">
         <v>29</v>
       </c>
@@ -2009,7 +2014,7 @@
       <c r="E48" s="11"/>
       <c r="F48" s="39"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="40" t="s">
         <v>28</v>
       </c>
@@ -2021,7 +2026,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>24</v>
       </c>
@@ -2036,7 +2041,7 @@
       </c>
       <c r="F50" s="39"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -2047,7 +2052,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -2055,7 +2060,7 @@
       <c r="E52" s="11"/>
       <c r="F52" s="39"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="46" t="s">
         <v>30</v>
       </c>
@@ -2065,7 +2070,7 @@
       <c r="E53" s="11"/>
       <c r="F53" s="39"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="40" t="s">
         <v>20</v>
       </c>
@@ -2080,7 +2085,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>26</v>
       </c>
@@ -2093,7 +2098,7 @@
       </c>
       <c r="F55" s="39"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>27</v>
       </c>
@@ -2108,7 +2113,7 @@
       </c>
       <c r="F56" s="39"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -2119,7 +2124,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -2130,7 +2135,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="40" t="s">
         <v>22</v>
       </c>
@@ -2143,7 +2148,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
@@ -2157,7 +2162,7 @@
       </c>
       <c r="G60" s="26"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>33</v>
       </c>
@@ -2167,7 +2172,7 @@
       <c r="E62" s="10"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -2175,7 +2180,7 @@
       <c r="E63" s="11"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="40" t="s">
         <v>35</v>
       </c>
@@ -2185,7 +2190,7 @@
       <c r="E64" s="35"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="40" t="s">
         <v>34</v>
       </c>
@@ -2195,7 +2200,7 @@
       <c r="E65" s="35"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="29"/>
       <c r="C66" s="29"/>
@@ -2208,17 +2213,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="63" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="64" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="64" t="s">
         <v>76</v>
       </c>
@@ -2293,7 +2298,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2307,152 +2312,152 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="64" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="64" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="64" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="64" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="64" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="64" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="64" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="64" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="61">
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="61">
         <v>2.75E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="61">
         <v>4.7500000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="61">
         <v>5.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="s">
         <v>60</v>
       </c>
@@ -2460,7 +2465,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="59" t="s">
         <v>61</v>
       </c>
@@ -2468,7 +2473,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="59" t="s">
         <v>62</v>
       </c>
@@ -2476,7 +2481,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="59" t="s">
         <v>63</v>
       </c>
@@ -2484,7 +2489,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="59" t="s">
         <v>58</v>
       </c>
@@ -2492,7 +2497,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="59" t="s">
         <v>59</v>
       </c>
@@ -2500,17 +2505,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="59" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="59" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="s">
         <v>75</v>
       </c>
